--- a/PetStoreAPIAutomation/PetStoreTestCases.xlsx
+++ b/PetStoreAPIAutomation/PetStoreTestCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Programming\REST_ASSURED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Programming\REST_Assured_Framework\PetStoreAPIAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5801C3-C18A-43BC-846A-31C2847569E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AF143D-1260-46E9-ACD1-88414EAFA202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{24E36CFC-5C53-46E9-817F-281A15F9FBA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{24E36CFC-5C53-46E9-817F-281A15F9FBA1}"/>
   </bookViews>
   <sheets>
     <sheet name="User_Tests" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> Assured API Test Automation Framework</a:t>
+            <a:t> Assured API Test Automation Framework for PetStore</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
@@ -2868,7 +2868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F0F00C-738C-44B9-8B49-A1856EAC9782}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4332,8 +4332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1685841B-0EAB-4671-A838-19EAA2C75055}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
